--- a/data/trans_orig/IP36_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP36_2023-Estudios-trans_orig.xlsx
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>52,76%</t>
+          <t>70,59%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>44,38%</t>
+          <t>42,19%</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1535,12 +1535,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>34,93%</t>
+          <t>35,74%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>93,31%</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>64,57%</t>
+          <t>69,7%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>78,63%</t>
+          <t>83,43%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>53,56%</t>
+          <t>46,38%</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,9%</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2015,12 +2015,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2036,12 +2036,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>10,75%</t>
         </is>
       </c>
     </row>
@@ -2065,12 +2065,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>29,39%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2086,12 +2086,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>33,73%</t>
+          <t>34,4%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>27,36%</t>
         </is>
       </c>
     </row>
@@ -2136,12 +2136,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>44,84%</t>
+          <t>43,89%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>22,23%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>48,71%</t>
+          <t>47,54%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2178,12 +2178,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>42,67%</t>
+          <t>42,63%</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>4,76%</t>
         </is>
       </c>
     </row>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,39%</t>
         </is>
       </c>
     </row>
@@ -2349,12 +2349,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2391,12 +2391,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>14,25%</t>
         </is>
       </c>
     </row>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>28,84%</t>
+          <t>29,08%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>58,14%</t>
+          <t>56,65%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2441,12 +2441,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>45,83%</t>
+          <t>44,81%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2462,12 +2462,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>28,07%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>47,08%</t>
+          <t>46,55%</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>60,01%</t>
+          <t>49,01%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>27,19%</t>
+          <t>27,28%</t>
         </is>
       </c>
     </row>
@@ -2800,12 +2800,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>65,71%</t>
+          <t>61,72%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2821,12 +2821,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>39,45%</t>
+          <t>36,09%</t>
         </is>
       </c>
     </row>
@@ -3084,12 +3084,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>25,66%</t>
+          <t>27,66%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>88,38%</t>
+          <t>88,11%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3105,12 +3105,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>54,99%</t>
+          <t>56,13%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>94,18%</t>
         </is>
       </c>
     </row>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,31%</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3322,12 +3322,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>8,37%</t>
         </is>
       </c>
     </row>
@@ -3351,12 +3351,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3372,12 +3372,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3393,12 +3393,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>23,75%</t>
         </is>
       </c>
     </row>
@@ -3422,12 +3422,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>43,25%</t>
+          <t>43,37%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3443,12 +3443,12 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>48,88%</t>
+          <t>46,94%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3464,12 +3464,12 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>41,51%</t>
+          <t>41,73%</t>
         </is>
       </c>
     </row>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,59%</t>
         </is>
       </c>
     </row>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="M45" s="2" t="n">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -3635,12 +3635,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
@@ -3677,12 +3677,12 @@
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>10,96%</t>
         </is>
       </c>
     </row>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>34,24%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>60,12%</t>
+          <t>60,46%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3727,12 +3727,12 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>45,43%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3748,12 +3748,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>48,76%</t>
+          <t>48,23%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/IP36_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP36_2023-Estudios-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,13 +537,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Adultos según su situación laboral actual en 2023 (Tasa respuesta: 7,19%)</t>
+          <t>Adultos según su situación laboral actual en 2023 (Tasa respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -552,7 +552,7 @@
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="I1" s="3" t="n"/>
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -681,58 +681,64 @@
       <c r="C4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>918</v>
+      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>918</v>
+      </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,61%</t>
         </is>
       </c>
     </row>
@@ -744,60 +750,66 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1241</v>
+      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>2240</v>
+      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>3480</v>
+      </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,91%</t>
         </is>
       </c>
     </row>
@@ -809,60 +821,66 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>941</v>
+      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>881</v>
+      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>1822</v>
+      </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,94%</t>
         </is>
       </c>
     </row>
@@ -874,60 +892,66 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="inlineStr"/>
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>18797</v>
+      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,38%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,51%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>18245</v>
+      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,43%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,81%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>37042</v>
+      </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,75%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,76%</t>
         </is>
       </c>
     </row>
@@ -939,60 +963,66 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>2223</v>
+      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>6265</v>
+      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>8487</v>
+      </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,79%</t>
         </is>
       </c>
     </row>
@@ -1006,58 +1036,64 @@
       <c r="C9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="N9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,25%</t>
         </is>
       </c>
     </row>
@@ -1069,60 +1105,66 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>12039</v>
+      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>9367</v>
+      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>21406</v>
+      </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,44%</t>
         </is>
       </c>
     </row>
@@ -1134,60 +1176,66 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>19437</v>
+      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,55%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,68%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>24089</v>
+      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,85%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,38%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2" t="inlineStr"/>
+        <v>59</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>43527</v>
+      </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,3%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,07%</t>
         </is>
       </c>
     </row>
@@ -1199,67 +1247,73 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="inlineStr"/>
+        <v>69</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>54678</v>
+      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="inlineStr"/>
+        <v>83</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>62004</v>
+      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2" t="inlineStr"/>
+        <v>152</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>116682</v>
+      </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -1268,66 +1322,66 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0</v>
+        <v>4020</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0</v>
+        <v>4186</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>0</v>
+        <v>8206</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>1,45%</t>
         </is>
       </c>
     </row>
@@ -1339,66 +1393,66 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>8534</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0</v>
+        <v>11054</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>0</v>
+        <v>19588</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>2,98%</t>
         </is>
       </c>
     </row>
@@ -1410,66 +1464,66 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>352</v>
+        <v>17635</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>70,59%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>548</v>
+        <v>15631</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>73,76%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>899</v>
+        <v>33265</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>42,19%</t>
+          <t>4,66%</t>
         </is>
       </c>
     </row>
@@ -1481,66 +1535,66 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2857</v>
+        <v>73257</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>75,61%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>2077</v>
+        <v>81674</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>63,31%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4933</v>
+        <v>154931</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>69,9%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>35,74%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>18,07%</t>
         </is>
       </c>
     </row>
@@ -1552,66 +1606,66 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>9315</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0</v>
+        <v>4839</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>0</v>
+        <v>14154</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>2,31%</t>
         </is>
       </c>
     </row>
@@ -1623,66 +1677,66 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0</v>
+        <v>1866</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0</v>
+        <v>1464</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>0</v>
+        <v>3331</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>0,74%</t>
         </is>
       </c>
     </row>
@@ -1694,66 +1748,66 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>570</v>
+        <v>88282</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>69,7%</t>
+          <t>35,8%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>656</v>
+        <v>76209</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>83,43%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1225</v>
+        <v>164491</v>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>46,38%</t>
+          <t>25,61%</t>
         </is>
       </c>
     </row>
@@ -1765,66 +1819,66 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0</v>
+        <v>257601</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,94%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>45,1%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>61,19%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0</v>
+        <v>321561</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,24%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>57,7%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>66,75%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
-        <v>0</v>
+        <v>796</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>0</v>
+        <v>579163</v>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,27%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>53,42%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>62,45%</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1890,10 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>5</v>
+        <v>643</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>3779</v>
+        <v>460510</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
@@ -1857,10 +1911,10 @@
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>5</v>
+        <v>656</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>3280</v>
+        <v>516619</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
@@ -1878,10 +1932,10 @@
         </is>
       </c>
       <c r="M21" s="2" t="n">
-        <v>10</v>
+        <v>1299</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>7058</v>
+        <v>977129</v>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
@@ -1902,7 +1956,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
@@ -1911,35 +1965,35 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
         <v>2</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>988</v>
+        <v>1487</v>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1949,28 +2003,28 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>988</v>
+        <v>3342</v>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>2,73%</t>
         </is>
       </c>
     </row>
@@ -1982,14 +2036,14 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>657</v>
+        <v>1065</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1999,49 +2053,49 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>2213</v>
+        <v>1532</v>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2871</v>
+        <v>2597</v>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>1,98%</t>
         </is>
       </c>
     </row>
@@ -2053,66 +2107,66 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>5103</v>
+        <v>2898</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>7491</v>
+        <v>1094</v>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>12595</v>
+        <v>3991</v>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>27,36%</t>
+          <t>2,55%</t>
         </is>
       </c>
     </row>
@@ -2124,66 +2178,66 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>10739</v>
+        <v>9519</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>43,89%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>12221</v>
+        <v>5839</v>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>34,2%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>47,54%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>22960</v>
+        <v>15358</v>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>42,63%</t>
+          <t>6,98%</t>
         </is>
       </c>
     </row>
@@ -2195,66 +2249,66 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>1498</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>7,96%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>1498</v>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>3,48%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>661</v>
-      </c>
-      <c r="O26" s="2" t="inlineStr">
-        <is>
-          <t>0,93%</t>
-        </is>
-      </c>
-      <c r="P26" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -2283,18 +2337,18 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>1083</v>
+        <v>1236</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -2304,18 +2358,18 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1083</v>
+        <v>1236</v>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
@@ -2325,7 +2379,7 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>1,88%</t>
         </is>
       </c>
     </row>
@@ -2337,66 +2391,66 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>3277</v>
+        <v>6792</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>396</v>
+        <v>13466</v>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>3673</v>
+        <v>20259</v>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>8,67%</t>
         </is>
       </c>
     </row>
@@ -2408,66 +2462,66 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>15059</v>
+        <v>127421</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>42,42%</t>
+          <t>85,2%</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>29,08%</t>
+          <t>80,25%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>56,65%</t>
+          <t>89,7%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>11344</v>
+        <v>157197</v>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>31,74%</t>
+          <t>85,74%</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>80,5%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>44,81%</t>
+          <t>89,97%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
-        <v>43</v>
+        <v>402</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>26402</v>
+        <v>284619</v>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>37,06%</t>
+          <t>85,5%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>28,07%</t>
+          <t>81,93%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>46,55%</t>
+          <t>88,71%</t>
         </is>
       </c>
     </row>
@@ -2479,10 +2533,10 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>53</v>
+        <v>230</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>35496</v>
+        <v>149551</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
@@ -2500,10 +2554,10 @@
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>54</v>
+        <v>238</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>35738</v>
+        <v>183349</v>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
@@ -2521,10 +2575,10 @@
         </is>
       </c>
       <c r="M30" s="2" t="n">
-        <v>107</v>
+        <v>468</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>71233</v>
+        <v>332900</v>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
@@ -2545,7 +2599,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
@@ -2554,66 +2608,66 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0</v>
+        <v>5875</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0</v>
+        <v>6591</v>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>0</v>
+        <v>12466</v>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>1,41%</t>
         </is>
       </c>
     </row>
@@ -2625,66 +2679,66 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0</v>
+        <v>10839</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0</v>
+        <v>14826</v>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>0</v>
+        <v>25665</v>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>2,49%</t>
         </is>
       </c>
     </row>
@@ -2696,66 +2750,66 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0</v>
+        <v>21474</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>756</v>
+        <v>17605</v>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>49,01%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>756</v>
+        <v>39079</v>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>3,61%</t>
         </is>
       </c>
     </row>
@@ -2767,66 +2821,66 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0</v>
+        <v>101573</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>3</v>
+        <v>134</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>1892</v>
+        <v>105758</v>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>61,72%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1892</v>
+        <v>207331</v>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>14,53%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>36,09%</t>
+          <t>16,68%</t>
         </is>
       </c>
     </row>
@@ -2838,66 +2892,66 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0</v>
+        <v>11538</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0</v>
+        <v>12601</v>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>0</v>
+        <v>24139</v>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>2,34%</t>
         </is>
       </c>
     </row>
@@ -2909,66 +2963,66 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0</v>
+        <v>1866</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>0</v>
+        <v>4566</v>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>0,72%</t>
         </is>
       </c>
     </row>
@@ -2980,66 +3034,66 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0</v>
+        <v>107113</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0</v>
+        <v>99043</v>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>0</v>
+        <v>206155</v>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>20,06%</t>
         </is>
       </c>
     </row>
@@ -3051,66 +3105,66 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>10</v>
+        <v>614</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>6574</v>
+        <v>404460</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>60,84%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>82,92%</t>
+          <t>51,55%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>64,91%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>7</v>
+        <v>643</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>3977</v>
+        <v>502848</v>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>60,03%</t>
+          <t>65,99%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>88,11%</t>
+          <t>69,18%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
-        <v>17</v>
+        <v>1257</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>10551</v>
+        <v>907308</v>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>79,94%</t>
+          <t>63,59%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>56,13%</t>
+          <t>59,99%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>66,45%</t>
         </is>
       </c>
     </row>
@@ -3122,10 +3176,10 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>10</v>
+        <v>942</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>6574</v>
+        <v>664738</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
@@ -3143,10 +3197,10 @@
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>11</v>
+        <v>977</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>6625</v>
+        <v>761972</v>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
@@ -3164,10 +3218,10 @@
         </is>
       </c>
       <c r="M39" s="2" t="n">
-        <v>21</v>
+        <v>1919</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>13199</v>
+        <v>1426710</v>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
@@ -3186,657 +3240,14 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>2,77%</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>988</v>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>2,17%</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
-        <is>
-          <t>7,87%</t>
-        </is>
-      </c>
-      <c r="M40" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>988</v>
-      </c>
-      <c r="O40" s="2" t="inlineStr">
-        <is>
-          <t>1,08%</t>
-        </is>
-      </c>
-      <c r="P40" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>3,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n"/>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>Incapacidad/invalidez permanente</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>657</v>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>1,43%</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>7,74%</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>2213</v>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>4,85%</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr">
-        <is>
-          <t>1,2%</t>
-        </is>
-      </c>
-      <c r="L41" s="2" t="inlineStr">
-        <is>
-          <t>15,12%</t>
-        </is>
-      </c>
-      <c r="M41" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N41" s="2" t="n">
-        <v>2871</v>
-      </c>
-      <c r="O41" s="2" t="inlineStr">
-        <is>
-          <t>3,14%</t>
-        </is>
-      </c>
-      <c r="P41" s="2" t="inlineStr">
-        <is>
-          <t>1,12%</t>
-        </is>
-      </c>
-      <c r="Q41" s="2" t="inlineStr">
-        <is>
-          <t>8,37%</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n"/>
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t>Estudiante</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>5455</v>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>11,9%</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>4,96%</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>23,61%</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>8795</v>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>19,27%</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr">
-        <is>
-          <t>10,58%</t>
-        </is>
-      </c>
-      <c r="L42" s="2" t="inlineStr">
-        <is>
-          <t>30,07%</t>
-        </is>
-      </c>
-      <c r="M42" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="N42" s="2" t="n">
-        <v>14250</v>
-      </c>
-      <c r="O42" s="2" t="inlineStr">
-        <is>
-          <t>15,58%</t>
-        </is>
-      </c>
-      <c r="P42" s="2" t="inlineStr">
-        <is>
-          <t>10,14%</t>
-        </is>
-      </c>
-      <c r="Q42" s="2" t="inlineStr">
-        <is>
-          <t>23,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n"/>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>Sus labores/Ama de casa</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>13596</v>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>29,65%</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>18,58%</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="inlineStr">
-        <is>
-          <t>43,37%</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>16190</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>35,47%</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr">
-        <is>
-          <t>24,43%</t>
-        </is>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>46,94%</t>
-        </is>
-      </c>
-      <c r="M43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="N43" s="2" t="n">
-        <v>29786</v>
-      </c>
-      <c r="O43" s="2" t="inlineStr">
-        <is>
-          <t>32,56%</t>
-        </is>
-      </c>
-      <c r="P43" s="2" t="inlineStr">
-        <is>
-          <t>24,49%</t>
-        </is>
-      </c>
-      <c r="Q43" s="2" t="inlineStr">
-        <is>
-          <t>41,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n"/>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>Jubilado (trabajó anteriormente)</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>661</v>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>1,44%</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>7,51%</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>2,7%</t>
-        </is>
-      </c>
-      <c r="M44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" s="2" t="n">
-        <v>661</v>
-      </c>
-      <c r="O44" s="2" t="inlineStr">
-        <is>
-          <t>0,72%</t>
-        </is>
-      </c>
-      <c r="P44" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="Q44" s="2" t="inlineStr">
-        <is>
-          <t>3,59%</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n"/>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>Busca primer empleo</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="inlineStr">
-        <is>
-          <t>2,77%</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>1083</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>2,37%</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
-        <is>
-          <t>7,55%</t>
-        </is>
-      </c>
-      <c r="M45" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N45" s="2" t="n">
-        <v>1083</v>
-      </c>
-      <c r="O45" s="2" t="inlineStr">
-        <is>
-          <t>1,18%</t>
-        </is>
-      </c>
-      <c r="P45" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="Q45" s="2" t="inlineStr">
-        <is>
-          <t>4,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n"/>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>Está en el paro y ha trabajado antes</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>3846</v>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
-        <is>
-          <t>8,39%</t>
-        </is>
-      </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>3,04%</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="inlineStr">
-        <is>
-          <t>20,63%</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>1052</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>2,3%</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>8,5%</t>
-        </is>
-      </c>
-      <c r="M46" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="N46" s="2" t="n">
-        <v>4898</v>
-      </c>
-      <c r="O46" s="2" t="inlineStr">
-        <is>
-          <t>5,35%</t>
-        </is>
-      </c>
-      <c r="P46" s="2" t="inlineStr">
-        <is>
-          <t>2,43%</t>
-        </is>
-      </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>10,96%</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>Trabaja</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>21632</v>
-      </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>47,18%</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>34,24%</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>60,46%</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>15321</v>
-      </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>33,57%</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="inlineStr">
-        <is>
-          <t>23,19%</t>
-        </is>
-      </c>
-      <c r="L47" s="2" t="inlineStr">
-        <is>
-          <t>45,43%</t>
-        </is>
-      </c>
-      <c r="M47" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="N47" s="2" t="n">
-        <v>36954</v>
-      </c>
-      <c r="O47" s="2" t="inlineStr">
-        <is>
-          <t>40,39%</t>
-        </is>
-      </c>
-      <c r="P47" s="2" t="inlineStr">
-        <is>
-          <t>31,27%</t>
-        </is>
-      </c>
-      <c r="Q47" s="2" t="inlineStr">
-        <is>
-          <t>48,23%</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n"/>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>45848</v>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>45643</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M48" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="N48" s="2" t="n">
-        <v>91491</v>
-      </c>
-      <c r="O48" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P48" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q48" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A13:A21"/>
     <mergeCell ref="A22:A30"/>
     <mergeCell ref="C1:G1"/>
@@ -3845,7 +3256,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A31:A39"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A40:A48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
